--- a/wikischema/File/Photocatalytic_CO2_conversion_Template.xlsx
+++ b/wikischema/File/Photocatalytic_CO2_conversion_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAF52DB-6BEA-4FFF-8E60-94631F366422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D4079-AC2E-4304-AB7B-4E7F10C6E67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,60 +20,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Catalyst</t>
-  </si>
-  <si>
-    <t>Catalyst_data</t>
-  </si>
-  <si>
-    <t>Catalyst concentration</t>
-  </si>
-  <si>
-    <t>Photosensitizer</t>
-  </si>
-  <si>
-    <t>Photosensitizer_data</t>
-  </si>
-  <si>
-    <t>Photosensitizer concentration</t>
-  </si>
-  <si>
-    <t>Electron donor</t>
-  </si>
-  <si>
-    <t>Electron donor_data</t>
-  </si>
-  <si>
-    <t>Electron donor concentration</t>
-  </si>
-  <si>
-    <t>Hydrogen donor</t>
-  </si>
-  <si>
-    <t>Hydrogen donor_data</t>
-  </si>
-  <si>
-    <t>Hydrogen donor concentration</t>
-  </si>
-  <si>
-    <t>Solvent A</t>
-  </si>
-  <si>
-    <t>Solvent A_data</t>
-  </si>
-  <si>
-    <t>Solvent B</t>
-  </si>
-  <si>
-    <t>Solvent B_data</t>
-  </si>
-  <si>
-    <t>Solvent C</t>
-  </si>
-  <si>
-    <t>Solvent C_data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Catalyst_inchikey</t>
+  </si>
+  <si>
+    <t>Catalyst_molfile</t>
+  </si>
+  <si>
+    <t>Catalyst concentration [µM]</t>
+  </si>
+  <si>
+    <t>Photosensitizer_inchikey</t>
+  </si>
+  <si>
+    <t>Photosensitizer_molfile</t>
+  </si>
+  <si>
+    <t>Photosensitizer concentration [mM]</t>
+  </si>
+  <si>
+    <t>Electron donor_inchikey</t>
+  </si>
+  <si>
+    <t>Electron donor_molfile</t>
+  </si>
+  <si>
+    <t>Electron donor concentration [M]</t>
+  </si>
+  <si>
+    <t>Hydrogen donor_inchikey</t>
+  </si>
+  <si>
+    <t>Hydrogen donor_molfile</t>
+  </si>
+  <si>
+    <t>Hydrogen donor concentration [M]</t>
+  </si>
+  <si>
+    <t>Solvent A_inchikey</t>
+  </si>
+  <si>
+    <t>Solvent A_molfile</t>
+  </si>
+  <si>
+    <t>Solvent B_inchikey</t>
+  </si>
+  <si>
+    <t>Solvent B_molfile</t>
+  </si>
+  <si>
+    <t>Solvent C_inchikey</t>
+  </si>
+  <si>
+    <t>Solvent C_molfile</t>
   </si>
   <si>
     <t>Solvent ratio</t>
@@ -82,61 +82,79 @@
     <t>Additives</t>
   </si>
   <si>
-    <t>Additives concentration</t>
+    <t>Additives concentration [M]</t>
   </si>
   <si>
     <t>Feedstock gas</t>
   </si>
   <si>
-    <t>Feedstock volume</t>
-  </si>
-  <si>
-    <t>Intensity</t>
+    <t>Feedstock volume [mL]</t>
+  </si>
+  <si>
+    <t>Intensity [kW/m²]</t>
   </si>
   <si>
     <t>PH value</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Irradiation time</t>
-  </si>
-  <si>
-    <t>Turnover number CO</t>
-  </si>
-  <si>
-    <t>Turnover number CH4</t>
-  </si>
-  <si>
-    <t>Turnover number H2</t>
-  </si>
-  <si>
-    <t>Turnover number HCOOH</t>
-  </si>
-  <si>
-    <t>Turnover number MeOH</t>
-  </si>
-  <si>
-    <t>Turnover frequency C0</t>
-  </si>
-  <si>
-    <t>Turnover frequency C0_data</t>
-  </si>
-  <si>
-    <t>Turnover frequency CH4</t>
-  </si>
-  <si>
-    <t>Turnover frequency H2</t>
-  </si>
-  <si>
-    <t>Turnover frequency HCOOH</t>
-  </si>
-  <si>
-    <t>Turnover frequency MeOH</t>
-  </si>
-  <si>
-    <t>Selectivity</t>
+    <t>TemperatureP [°C]</t>
+  </si>
+  <si>
+    <t>Excitation wavelength [nm]</t>
+  </si>
+  <si>
+    <t>Irradiation time [h]</t>
+  </si>
+  <si>
+    <t>Turnover number CO [TON]</t>
+  </si>
+  <si>
+    <t>Turnover number CH4 [TON]</t>
+  </si>
+  <si>
+    <t>Turnover number H2 [TON]</t>
+  </si>
+  <si>
+    <t>Turnover number HCOOH [TON]</t>
+  </si>
+  <si>
+    <t>Turnover number MeOH [TON]</t>
+  </si>
+  <si>
+    <t>Turnover frequency CO [TOF/min]</t>
+  </si>
+  <si>
+    <t>Turnover frequency CH4 [TOF/min]</t>
+  </si>
+  <si>
+    <t>Turnover frequency H2 [TOF/min]</t>
+  </si>
+  <si>
+    <t>Turnover frequency HCOOH [TOF/min]</t>
+  </si>
+  <si>
+    <t>Turnover frequency MeOH [TOF/min]</t>
+  </si>
+  <si>
+    <t>Quantum yield CO</t>
+  </si>
+  <si>
+    <t>Quantum yield CH4</t>
+  </si>
+  <si>
+    <t>Quantum yield H2</t>
+  </si>
+  <si>
+    <t>Quantum yield HCOOH</t>
+  </si>
+  <si>
+    <t>Quantum yield MeOH</t>
+  </si>
+  <si>
+    <t>Quantum yield total</t>
+  </si>
+  <si>
+    <t>Selectivity [%]</t>
   </si>
   <si>
     <t>Details</t>
@@ -492,19 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,6 +644,24 @@
       </c>
       <c r="AP1" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/wikischema/File/Photocatalytic_CO2_conversion_Template.xlsx
+++ b/wikischema/File/Photocatalytic_CO2_conversion_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D4079-AC2E-4304-AB7B-4E7F10C6E67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF2C647-CC53-45BF-B07B-0BDB858E35D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,148 +22,148 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t>Catalyst_inchikey</t>
+    <t>Catalyst_inchikey &lt;catalyst&gt;</t>
   </si>
   <si>
     <t>Catalyst_molfile</t>
   </si>
   <si>
-    <t>Catalyst concentration [µM]</t>
-  </si>
-  <si>
-    <t>Photosensitizer_inchikey</t>
+    <t>Catalyst concentration [µM] &lt;cat conc&gt;</t>
+  </si>
+  <si>
+    <t>Photosensitizer_inchikey &lt;PS&gt;</t>
   </si>
   <si>
     <t>Photosensitizer_molfile</t>
   </si>
   <si>
-    <t>Photosensitizer concentration [mM]</t>
-  </si>
-  <si>
-    <t>Electron donor_inchikey</t>
+    <t>Photosensitizer concentration [mM] &lt;PS conc&gt;</t>
+  </si>
+  <si>
+    <t>Electron donor_inchikey &lt;e-D&gt;</t>
   </si>
   <si>
     <t>Electron donor_molfile</t>
   </si>
   <si>
-    <t>Electron donor concentration [M]</t>
-  </si>
-  <si>
-    <t>Hydrogen donor_inchikey</t>
+    <t>Electron donor concentration [M] &lt;e-D conc&gt;</t>
+  </si>
+  <si>
+    <t>Hydrogen donor_inchikey &lt;H-D&gt;</t>
   </si>
   <si>
     <t>Hydrogen donor_molfile</t>
   </si>
   <si>
-    <t>Hydrogen donor concentration [M]</t>
-  </si>
-  <si>
-    <t>Solvent A_inchikey</t>
+    <t>Hydrogen donor concentration [M] &lt;H-D conc&gt;</t>
+  </si>
+  <si>
+    <t>Solvent A_inchikey &lt;solvent A&gt;</t>
   </si>
   <si>
     <t>Solvent A_molfile</t>
   </si>
   <si>
-    <t>Solvent B_inchikey</t>
+    <t>Solvent B_inchikey &lt;solvent B&gt;</t>
   </si>
   <si>
     <t>Solvent B_molfile</t>
   </si>
   <si>
-    <t>Solvent C_inchikey</t>
+    <t>Solvent C_inchikey &lt;solvent C&gt;</t>
   </si>
   <si>
     <t>Solvent C_molfile</t>
   </si>
   <si>
-    <t>Solvent ratio</t>
-  </si>
-  <si>
-    <t>Additives</t>
-  </si>
-  <si>
-    <t>Additives concentration [M]</t>
-  </si>
-  <si>
-    <t>Feedstock gas</t>
-  </si>
-  <si>
-    <t>Feedstock volume [mL]</t>
-  </si>
-  <si>
-    <t>Intensity [kW/m²]</t>
-  </si>
-  <si>
-    <t>PH value</t>
-  </si>
-  <si>
-    <t>TemperatureP [°C]</t>
-  </si>
-  <si>
-    <t>Excitation wavelength [nm]</t>
-  </si>
-  <si>
-    <t>Irradiation time [h]</t>
-  </si>
-  <si>
-    <t>Turnover number CO [TON]</t>
-  </si>
-  <si>
-    <t>Turnover number CH4 [TON]</t>
-  </si>
-  <si>
-    <t>Turnover number H2 [TON]</t>
-  </si>
-  <si>
-    <t>Turnover number HCOOH [TON]</t>
-  </si>
-  <si>
-    <t>Turnover number MeOH [TON]</t>
-  </si>
-  <si>
-    <t>Turnover frequency CO [TOF/min]</t>
-  </si>
-  <si>
-    <t>Turnover frequency CH4 [TOF/min]</t>
-  </si>
-  <si>
-    <t>Turnover frequency H2 [TOF/min]</t>
-  </si>
-  <si>
-    <t>Turnover frequency HCOOH [TOF/min]</t>
-  </si>
-  <si>
-    <t>Turnover frequency MeOH [TOF/min]</t>
-  </si>
-  <si>
-    <t>Quantum yield CO</t>
-  </si>
-  <si>
-    <t>Quantum yield CH4</t>
-  </si>
-  <si>
-    <t>Quantum yield H2</t>
-  </si>
-  <si>
-    <t>Quantum yield HCOOH</t>
-  </si>
-  <si>
-    <t>Quantum yield MeOH</t>
-  </si>
-  <si>
-    <t>Quantum yield total</t>
-  </si>
-  <si>
-    <t>Selectivity [%]</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Included</t>
-  </si>
-  <si>
-    <t>BasePageName</t>
+    <t>Solvent ratio &lt;solvent-ratio&gt;</t>
+  </si>
+  <si>
+    <t>Additives &lt;additives&gt;</t>
+  </si>
+  <si>
+    <t>Additives concentration [M] &lt;additives conc&gt;</t>
+  </si>
+  <si>
+    <t>Feedstock gas &lt;feedstock gas&gt;</t>
+  </si>
+  <si>
+    <t>Feedstock volume [mL] &lt;feedstock volume&gt;</t>
+  </si>
+  <si>
+    <t>Intensity [kW/m²] &lt;intensity&gt;</t>
+  </si>
+  <si>
+    <t>PH value &lt;pH&gt;</t>
+  </si>
+  <si>
+    <t>TemperatureP [°C] &lt;Temperature&gt;</t>
+  </si>
+  <si>
+    <t>Excitation wavelength [nm] &lt;λexc&gt;</t>
+  </si>
+  <si>
+    <t>Irradiation time [h] &lt;irr time&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number CO [TON] &lt;TON CO&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number CH4 [TON] &lt;TON CH4&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number H2 [TON] &lt;TON H2&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number HCOOH [TON] &lt;TON HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number MeOH [TON] &lt;TON MeOH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency CO [TOF/min] &lt;TOF CO&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency CH4 [TOF/min] &lt;TOF CH4&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency H2 [TOF/min] &lt;TOF H2&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency HCOOH [TOF/min] &lt;TOF HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency MeOH [TOF/min] &lt;TOF MeOH&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield CO &lt;Φ CO&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield CH4 &lt;Φ CH4&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield H2 &lt;Φ H2&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield HCOOH &lt;Φ HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield MeOH &lt;Φ MeOH&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield total &lt;Φ all&gt;</t>
+  </si>
+  <si>
+    <t>Selectivity [%] &lt;selectivity&gt;</t>
+  </si>
+  <si>
+    <t>Details &lt;details&gt;</t>
+  </si>
+  <si>
+    <t>Included &lt;include&gt;</t>
+  </si>
+  <si>
+    <t>BasePageName &lt;BasePageName&gt;</t>
   </si>
 </sst>
 </file>
@@ -513,10 +513,15 @@
   <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/wikischema/File/Photocatalytic_CO2_conversion_Template.xlsx
+++ b/wikischema/File/Photocatalytic_CO2_conversion_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF2C647-CC53-45BF-B07B-0BDB858E35D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFABA62-365A-41AE-8E24-8F8176028FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Catalyst_inchikey &lt;catalyst&gt;</t>
   </si>
@@ -106,55 +106,70 @@
     <t>Irradiation time [h] &lt;irr time&gt;</t>
   </si>
   <si>
-    <t>Turnover number CO [TON] &lt;TON CO&gt;</t>
-  </si>
-  <si>
-    <t>Turnover number CH4 [TON] &lt;TON CH4&gt;</t>
-  </si>
-  <si>
-    <t>Turnover number H2 [TON] &lt;TON H2&gt;</t>
-  </si>
-  <si>
-    <t>Turnover number HCOOH [TON] &lt;TON HCOOH&gt;</t>
-  </si>
-  <si>
-    <t>Turnover number MeOH [TON] &lt;TON MeOH&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency CO [TOF/min] &lt;TOF CO&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency CH4 [TOF/min] &lt;TOF CH4&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency H2 [TOF/min] &lt;TOF H2&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency HCOOH [TOF/min] &lt;TOF HCOOH&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency MeOH [TOF/min] &lt;TOF MeOH&gt;</t>
-  </si>
-  <si>
-    <t>Quantum yield CO &lt;Φ CO&gt;</t>
-  </si>
-  <si>
-    <t>Quantum yield CH4 &lt;Φ CH4&gt;</t>
-  </si>
-  <si>
-    <t>Quantum yield H2 &lt;Φ H2&gt;</t>
-  </si>
-  <si>
-    <t>Quantum yield HCOOH &lt;Φ HCOOH&gt;</t>
-  </si>
-  <si>
-    <t>Quantum yield MeOH &lt;Φ MeOH&gt;</t>
+    <t>Turnover number(CO) &lt;TON CO&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number(CH4) &lt;TON CH4&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number(H2) &lt;TON H2&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number(HCOOH) &lt;TON HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover number(MeOH) &lt;TON MeOH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency(CO) &lt;TOF CO&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency(CH4) &lt;TOF CH4&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency(H2) &lt;TOF H2&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency(HCOOH) &lt;TOF HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency(MeOH) &lt;TOF MeOH&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield(CO)_inchikey &lt;Φ CO&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield at (CO)_molfile</t>
+  </si>
+  <si>
+    <t>Quantum yield(CH4)_inchikey &lt;Φ CH4&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield at (CH4)_molfile</t>
+  </si>
+  <si>
+    <t>Quantum yield(H2)_inchikey &lt;Φ H2&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield at (H2)_molfile</t>
+  </si>
+  <si>
+    <t>Quantum yield(HCOOH)_inchikey &lt;Φ HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield at (HCOOH)_molfile</t>
+  </si>
+  <si>
+    <t>Quantum yield(MeOH)_inchikey &lt;Φ MeOH&gt;</t>
+  </si>
+  <si>
+    <t>Quantum yield at (MeOH)_molfile</t>
   </si>
   <si>
     <t>Quantum yield total &lt;Φ all&gt;</t>
   </si>
   <si>
-    <t>Selectivity [%] &lt;selectivity&gt;</t>
+    <t>Selectivity &lt;auto-generated-Selectivity&gt;</t>
   </si>
   <si>
     <t>Details &lt;details&gt;</t>
@@ -510,20 +525,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,6 +682,21 @@
       </c>
       <c r="AV1" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
